--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1031603.669882162</v>
+        <v>1066921.919675151</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13360835.96253918</v>
+        <v>12157779.51246665</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2460204.061553705</v>
+        <v>1786423.703430226</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7347276.184557936</v>
+        <v>7598560.337487238</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>41.21440870105943</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>419.0596946068497</v>
@@ -674,7 +676,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>75.32281115118167</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -817,25 +819,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>27.2773136898119</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>73.50111029899489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>279.4566832902857</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>386.5623754951528</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -953,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>102.041237801374</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>141.0788638521123</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1139,7 +1141,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>119.3579639104024</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
@@ -1148,10 +1150,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>292.6131987380687</v>
       </c>
     </row>
     <row r="9">
@@ -1303,10 +1305,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>129.630520438485</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>192.0110496463976</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
@@ -1357,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1376,10 +1378,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>97.37896090070777</v>
       </c>
       <c r="F11" t="n">
-        <v>153.3573077796844</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1418,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>4.378995526348037</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1540,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>123.0673923170405</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>215.1580977960355</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -1658,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>141.0753921893335</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1765,22 +1767,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>123.0673923170405</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1862,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>115.1055716303386</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>211.2730214979432</v>
       </c>
     </row>
     <row r="20">
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458144</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>104.9037564455521</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2302,7 +2304,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>219.6035253819533</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2482,19 +2484,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>104.9037564455521</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2710,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>106.0606729676881</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>35.51998788130945</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -2773,7 +2775,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>69.70658994605395</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3187,19 +3189,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>149.1427835161697</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3244,13 +3246,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>155.6273778768442</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3275,7 +3277,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924947</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>400.2956717864458</v>
@@ -3424,7 +3426,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>149.1427835161698</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3518,10 +3520,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3664,19 +3666,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>124.2290557831222</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>98.15366458399308</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3737,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>199.2584561565809</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>228.8560878243364</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -3913,10 +3915,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>195.7062479230765</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3974,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>390.8884527207819</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>97.37896090070777</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -4135,22 +4137,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>107.4764411948423</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -4180,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>253.5763042198842</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2072.680517545698</v>
+        <v>2177.531292217814</v>
       </c>
       <c r="C2" t="n">
-        <v>2031.049801686042</v>
+        <v>1750.630562231114</v>
       </c>
       <c r="D2" t="n">
-        <v>1607.757180871042</v>
+        <v>1327.337941416114</v>
       </c>
       <c r="E2" t="n">
-        <v>1181.780241018899</v>
+        <v>901.3610015639716</v>
       </c>
       <c r="F2" t="n">
-        <v>756.6560592082994</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="G2" t="n">
-        <v>352.3169967977481</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H2" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I2" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J2" t="n">
-        <v>417.0520770886785</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K2" t="n">
-        <v>583.4696253673028</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L2" t="n">
-        <v>583.4696253673028</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="M2" t="n">
-        <v>1257.271276480617</v>
+        <v>2566.875559553125</v>
       </c>
       <c r="N2" t="n">
-        <v>1931.072927593931</v>
+        <v>2749.743216990209</v>
       </c>
       <c r="O2" t="n">
-        <v>2604.874578707245</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="P2" t="n">
-        <v>2604.874578707245</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q2" t="n">
-        <v>2604.874578707245</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R2" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S2" t="n">
-        <v>2722.430913589148</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T2" t="n">
-        <v>2501.505342633781</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="U2" t="n">
-        <v>2501.505342633781</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="V2" t="n">
-        <v>2501.505342633781</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="W2" t="n">
-        <v>2501.505342633781</v>
+        <v>3414.436925386706</v>
       </c>
       <c r="X2" t="n">
-        <v>2493.825747841933</v>
+        <v>3002.716926554453</v>
       </c>
       <c r="Y2" t="n">
-        <v>2492.528881837227</v>
+        <v>2597.379656509343</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C3" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D3" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E3" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F3" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G3" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H3" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I3" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J3" t="n">
-        <v>54.44861827178296</v>
+        <v>343.5952466224115</v>
       </c>
       <c r="K3" t="n">
-        <v>54.44861827178296</v>
+        <v>343.5952466224115</v>
       </c>
       <c r="L3" t="n">
-        <v>54.44861827178296</v>
+        <v>343.5952466224115</v>
       </c>
       <c r="M3" t="n">
-        <v>515.5329466256644</v>
+        <v>700.2421940220529</v>
       </c>
       <c r="N3" t="n">
-        <v>1189.334597738979</v>
+        <v>700.2421940220529</v>
       </c>
       <c r="O3" t="n">
-        <v>1189.334597738979</v>
+        <v>700.2421940220529</v>
       </c>
       <c r="P3" t="n">
-        <v>1863.136248852293</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="Q3" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R3" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S3" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T3" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U3" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V3" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W3" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X3" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>802.0514800952428</v>
+        <v>1685.592518590384</v>
       </c>
       <c r="C4" t="n">
-        <v>630.0789169741588</v>
+        <v>1685.592518590384</v>
       </c>
       <c r="D4" t="n">
-        <v>466.7621441009295</v>
+        <v>1658.039676479463</v>
       </c>
       <c r="E4" t="n">
-        <v>300.553938253783</v>
+        <v>1658.039676479463</v>
       </c>
       <c r="F4" t="n">
-        <v>128.6921640283435</v>
+        <v>1658.039676479463</v>
       </c>
       <c r="G4" t="n">
-        <v>54.44861827178296</v>
+        <v>1658.039676479463</v>
       </c>
       <c r="H4" t="n">
-        <v>54.44861827178296</v>
+        <v>1514.243407987618</v>
       </c>
       <c r="I4" t="n">
-        <v>54.44861827178296</v>
+        <v>1414.474839727893</v>
       </c>
       <c r="J4" t="n">
-        <v>111.939946495941</v>
+        <v>1471.966167952051</v>
       </c>
       <c r="K4" t="n">
-        <v>338.4675477017781</v>
+        <v>1698.493769157889</v>
       </c>
       <c r="L4" t="n">
-        <v>693.1568689961989</v>
+        <v>2053.183090452309</v>
       </c>
       <c r="M4" t="n">
-        <v>1084.34266396645</v>
+        <v>2444.36888542256</v>
       </c>
       <c r="N4" t="n">
-        <v>1461.834174842485</v>
+        <v>2821.860396298596</v>
       </c>
       <c r="O4" t="n">
-        <v>1817.262303522249</v>
+        <v>3177.288524978359</v>
       </c>
       <c r="P4" t="n">
-        <v>2107.86151544415</v>
+        <v>3467.88773690026</v>
       </c>
       <c r="Q4" t="n">
-        <v>2234.861645684911</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R4" t="n">
-        <v>2187.823032372085</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S4" t="n">
-        <v>2017.687984891219</v>
+        <v>3424.752819660157</v>
       </c>
       <c r="T4" t="n">
-        <v>2017.687984891219</v>
+        <v>3181.413471886056</v>
       </c>
       <c r="U4" t="n">
-        <v>2017.687984891219</v>
+        <v>2901.22902338636</v>
       </c>
       <c r="V4" t="n">
-        <v>1735.976517499248</v>
+        <v>2619.51755599439</v>
       </c>
       <c r="W4" t="n">
-        <v>1461.124113671761</v>
+        <v>2344.665152166903</v>
       </c>
       <c r="X4" t="n">
-        <v>1218.560217117566</v>
+        <v>2102.101255612708</v>
       </c>
       <c r="Y4" t="n">
-        <v>992.2174488073085</v>
+        <v>1875.75848730245</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>543.92053698516</v>
+        <v>1740.66531331711</v>
       </c>
       <c r="C5" t="n">
-        <v>521.0602110388642</v>
+        <v>1313.76458333041</v>
       </c>
       <c r="D5" t="n">
-        <v>501.8079942642685</v>
+        <v>923.2975373757099</v>
       </c>
       <c r="E5" t="n">
-        <v>479.8714584525301</v>
+        <v>497.3205975235675</v>
       </c>
       <c r="F5" t="n">
-        <v>54.74727664193027</v>
+        <v>72.19641571296775</v>
       </c>
       <c r="G5" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H5" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I5" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J5" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K5" t="n">
-        <v>728.2502693850971</v>
+        <v>80.53897563800069</v>
       </c>
       <c r="L5" t="n">
-        <v>1374.82761136252</v>
+        <v>970.2737227554036</v>
       </c>
       <c r="M5" t="n">
-        <v>2048.629262475834</v>
+        <v>1860.008469872806</v>
       </c>
       <c r="N5" t="n">
-        <v>2048.629262475834</v>
+        <v>2749.743216990209</v>
       </c>
       <c r="O5" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="P5" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q5" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R5" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S5" t="n">
-        <v>2618.063619462288</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T5" t="n">
-        <v>2397.138048506922</v>
+        <v>3373.962296185655</v>
       </c>
       <c r="U5" t="n">
-        <v>2397.138048506922</v>
+        <v>3373.962296185655</v>
       </c>
       <c r="V5" t="n">
-        <v>2039.648633633171</v>
+        <v>3373.962296185655</v>
       </c>
       <c r="W5" t="n">
-        <v>1643.257283933518</v>
+        <v>2977.570946486002</v>
       </c>
       <c r="X5" t="n">
-        <v>1231.537285101265</v>
+        <v>2565.850947653749</v>
       </c>
       <c r="Y5" t="n">
-        <v>826.2000150561556</v>
+        <v>2160.51367760864</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C6" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D6" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E6" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F6" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G6" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H6" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I6" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J6" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K6" t="n">
-        <v>644.9335448401225</v>
+        <v>662.38268391116</v>
       </c>
       <c r="L6" t="n">
-        <v>1318.735195953437</v>
+        <v>662.38268391116</v>
       </c>
       <c r="M6" t="n">
-        <v>1318.735195953437</v>
+        <v>1552.117431028563</v>
       </c>
       <c r="N6" t="n">
-        <v>1318.735195953437</v>
+        <v>1552.117431028563</v>
       </c>
       <c r="O6" t="n">
-        <v>1318.735195953437</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P6" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q6" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R6" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S6" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T6" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U6" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V6" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W6" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X6" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y6" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>468.6936525335126</v>
+        <v>513.1504836861761</v>
       </c>
       <c r="C7" t="n">
-        <v>296.7210894124286</v>
+        <v>341.1779205650921</v>
       </c>
       <c r="D7" t="n">
-        <v>296.7210894124286</v>
+        <v>238.1059631899669</v>
       </c>
       <c r="E7" t="n">
-        <v>296.7210894124286</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="F7" t="n">
-        <v>296.7210894124286</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G7" t="n">
-        <v>296.7210894124286</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H7" t="n">
-        <v>154.217186531507</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I7" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J7" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K7" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L7" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M7" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N7" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O7" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P7" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q7" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R7" t="n">
-        <v>2187.823032372085</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S7" t="n">
-        <v>2017.687984891219</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T7" t="n">
-        <v>1774.348637117119</v>
+        <v>2008.971436981848</v>
       </c>
       <c r="U7" t="n">
-        <v>1494.164188617424</v>
+        <v>1728.786988482153</v>
       </c>
       <c r="V7" t="n">
-        <v>1212.452721225452</v>
+        <v>1447.075521090182</v>
       </c>
       <c r="W7" t="n">
-        <v>937.6003173979655</v>
+        <v>1172.223117262695</v>
       </c>
       <c r="X7" t="n">
-        <v>695.0364208437705</v>
+        <v>929.6592207084997</v>
       </c>
       <c r="Y7" t="n">
-        <v>468.6936525335126</v>
+        <v>703.3164523982417</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1889.56568446066</v>
+        <v>2475.399670743779</v>
       </c>
       <c r="C8" t="n">
-        <v>1462.66495447396</v>
+        <v>2048.498940757079</v>
       </c>
       <c r="D8" t="n">
-        <v>1039.37233365896</v>
+        <v>1625.206319942079</v>
       </c>
       <c r="E8" t="n">
-        <v>918.8087337494629</v>
+        <v>1199.229380089937</v>
       </c>
       <c r="F8" t="n">
-        <v>493.6845519388631</v>
+        <v>774.1051982793369</v>
       </c>
       <c r="G8" t="n">
-        <v>89.34548952831176</v>
+        <v>369.7661358687856</v>
       </c>
       <c r="H8" t="n">
-        <v>89.34548952831176</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I8" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J8" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K8" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L8" t="n">
-        <v>728.2502693850971</v>
+        <v>852.7173878735008</v>
       </c>
       <c r="M8" t="n">
-        <v>918.7421318583365</v>
+        <v>1742.452134990904</v>
       </c>
       <c r="N8" t="n">
-        <v>1592.543782971651</v>
+        <v>2632.186882108307</v>
       </c>
       <c r="O8" t="n">
-        <v>1592.543782971651</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="P8" t="n">
-        <v>2266.345434084965</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="Q8" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R8" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S8" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T8" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U8" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V8" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="W8" t="n">
-        <v>2722.430913589148</v>
+        <v>3198.496517441368</v>
       </c>
       <c r="X8" t="n">
-        <v>2310.710914756895</v>
+        <v>3190.81692264952</v>
       </c>
       <c r="Y8" t="n">
-        <v>2309.41404875219</v>
+        <v>2895.248035035309</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C9" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D9" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E9" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F9" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G9" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H9" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I9" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J9" t="n">
-        <v>54.44861827178296</v>
+        <v>343.5952466224115</v>
       </c>
       <c r="K9" t="n">
-        <v>54.44861827178296</v>
+        <v>934.0801731907511</v>
       </c>
       <c r="L9" t="n">
-        <v>54.44861827178296</v>
+        <v>934.0801731907511</v>
       </c>
       <c r="M9" t="n">
-        <v>54.44861827178296</v>
+        <v>934.0801731907511</v>
       </c>
       <c r="N9" t="n">
-        <v>728.2502693850971</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="O9" t="n">
-        <v>1398.990771989513</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="P9" t="n">
-        <v>1398.990771989513</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="Q9" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R9" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S9" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T9" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U9" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V9" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W9" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X9" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y9" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>795.2484132186319</v>
+        <v>515.5006629490681</v>
       </c>
       <c r="C10" t="n">
-        <v>623.2758500975478</v>
+        <v>343.5280998279841</v>
       </c>
       <c r="D10" t="n">
-        <v>623.2758500975478</v>
+        <v>343.5280998279841</v>
       </c>
       <c r="E10" t="n">
-        <v>623.2758500975478</v>
+        <v>343.5280998279841</v>
       </c>
       <c r="F10" t="n">
-        <v>451.4140758721082</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="G10" t="n">
-        <v>285.1571061663404</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="H10" t="n">
-        <v>154.217186531507</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I10" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J10" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K10" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L10" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M10" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N10" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O10" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P10" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q10" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R10" t="n">
-        <v>2234.861645684911</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="S10" t="n">
-        <v>2064.726598204046</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="T10" t="n">
-        <v>2064.726598204046</v>
+        <v>2011.32161624474</v>
       </c>
       <c r="U10" t="n">
-        <v>1784.542149704351</v>
+        <v>1731.137167745045</v>
       </c>
       <c r="V10" t="n">
-        <v>1502.830682312379</v>
+        <v>1449.425700353074</v>
       </c>
       <c r="W10" t="n">
-        <v>1227.978278484892</v>
+        <v>1174.573296525587</v>
       </c>
       <c r="X10" t="n">
-        <v>985.4143819306975</v>
+        <v>932.0093999713918</v>
       </c>
       <c r="Y10" t="n">
-        <v>985.4143819306975</v>
+        <v>705.6666316611338</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1485.525280420256</v>
+        <v>1020.453694912912</v>
       </c>
       <c r="C11" t="n">
-        <v>1058.624550433556</v>
+        <v>593.5529649262119</v>
       </c>
       <c r="D11" t="n">
-        <v>635.3319296185562</v>
+        <v>170.2603441112121</v>
       </c>
       <c r="E11" t="n">
-        <v>209.3549897664137</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="F11" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G11" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H11" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I11" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J11" t="n">
-        <v>417.0520770886785</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K11" t="n">
-        <v>417.0520770886785</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L11" t="n">
-        <v>1090.853728201993</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="M11" t="n">
-        <v>1374.82761136252</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="N11" t="n">
-        <v>2048.629262475834</v>
+        <v>2566.875559553125</v>
       </c>
       <c r="O11" t="n">
-        <v>2722.430913589148</v>
+        <v>3412.020209703937</v>
       </c>
       <c r="P11" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="Q11" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R11" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S11" t="n">
-        <v>2722.430913589148</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T11" t="n">
-        <v>2722.430913589148</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="U11" t="n">
-        <v>2722.430913589148</v>
+        <v>3011.240092655207</v>
       </c>
       <c r="V11" t="n">
-        <v>2722.430913589148</v>
+        <v>2653.750677781457</v>
       </c>
       <c r="W11" t="n">
-        <v>2722.430913589148</v>
+        <v>2257.359328081804</v>
       </c>
       <c r="X11" t="n">
-        <v>2310.710914756895</v>
+        <v>1845.639329249551</v>
       </c>
       <c r="Y11" t="n">
-        <v>1905.373644711786</v>
+        <v>1440.302059204442</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C12" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D12" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E12" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F12" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G12" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I12" t="n">
-        <v>54.44861827178296</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J12" t="n">
-        <v>54.44861827178296</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="K12" t="n">
-        <v>54.44861827178296</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="L12" t="n">
-        <v>54.44861827178296</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="M12" t="n">
-        <v>728.2502693850971</v>
+        <v>444.6858538584448</v>
       </c>
       <c r="N12" t="n">
-        <v>1402.051920498411</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="O12" t="n">
-        <v>1863.136248852293</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="P12" t="n">
-        <v>1863.136248852293</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="Q12" t="n">
-        <v>1863.136248852293</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R12" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S12" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T12" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U12" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V12" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W12" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X12" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y12" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>278.5276838214469</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="C13" t="n">
-        <v>278.5276838214469</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="D13" t="n">
-        <v>278.5276838214469</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="E13" t="n">
-        <v>278.5276838214469</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="F13" t="n">
-        <v>278.5276838214469</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="G13" t="n">
-        <v>278.5276838214469</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="H13" t="n">
-        <v>154.217186531507</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I13" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J13" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K13" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L13" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M13" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N13" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O13" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P13" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q13" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R13" t="n">
-        <v>2187.823032372085</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="S13" t="n">
-        <v>2017.687984891219</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="T13" t="n">
-        <v>1774.348637117119</v>
+        <v>1791.797776188157</v>
       </c>
       <c r="U13" t="n">
-        <v>1494.164188617424</v>
+        <v>1511.613327688461</v>
       </c>
       <c r="V13" t="n">
-        <v>1212.452721225452</v>
+        <v>1229.90186029649</v>
       </c>
       <c r="W13" t="n">
-        <v>937.6003173979655</v>
+        <v>955.0494564690027</v>
       </c>
       <c r="X13" t="n">
-        <v>695.0364208437705</v>
+        <v>712.4855599148078</v>
       </c>
       <c r="Y13" t="n">
-        <v>468.6936525335126</v>
+        <v>486.1427916045499</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2160.082153146776</v>
+        <v>1544.669353331301</v>
       </c>
       <c r="C14" t="n">
-        <v>1733.181423160076</v>
+        <v>1544.669353331301</v>
       </c>
       <c r="D14" t="n">
-        <v>1309.888802345077</v>
+        <v>1327.337941416114</v>
       </c>
       <c r="E14" t="n">
-        <v>883.9118624929341</v>
+        <v>901.3610015639716</v>
       </c>
       <c r="F14" t="n">
-        <v>458.7876806823343</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="G14" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H14" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I14" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J14" t="n">
-        <v>54.44861827178296</v>
+        <v>254.7654147799045</v>
       </c>
       <c r="K14" t="n">
-        <v>728.2502693850971</v>
+        <v>970.2737227554036</v>
       </c>
       <c r="L14" t="n">
-        <v>1402.051920498411</v>
+        <v>1860.008469872806</v>
       </c>
       <c r="M14" t="n">
-        <v>2075.853571611725</v>
+        <v>2749.743216990209</v>
       </c>
       <c r="N14" t="n">
-        <v>2722.430913589148</v>
+        <v>2749.743216990209</v>
       </c>
       <c r="O14" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="P14" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q14" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R14" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S14" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T14" t="n">
-        <v>2722.430913589148</v>
+        <v>3373.962296185655</v>
       </c>
       <c r="U14" t="n">
-        <v>2722.430913589148</v>
+        <v>3115.607386782067</v>
       </c>
       <c r="V14" t="n">
-        <v>2722.430913589148</v>
+        <v>2758.117971908317</v>
       </c>
       <c r="W14" t="n">
-        <v>2722.430913589148</v>
+        <v>2361.726622208664</v>
       </c>
       <c r="X14" t="n">
-        <v>2722.430913589148</v>
+        <v>1950.006623376411</v>
       </c>
       <c r="Y14" t="n">
-        <v>2579.930517438306</v>
+        <v>1544.669353331301</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C15" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D15" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E15" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F15" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G15" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L15" t="n">
-        <v>515.5329466256644</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="M15" t="n">
-        <v>1189.334597738979</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="N15" t="n">
-        <v>1863.136248852293</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="O15" t="n">
-        <v>1863.136248852293</v>
+        <v>961.3790353542921</v>
       </c>
       <c r="P15" t="n">
-        <v>1863.136248852293</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="Q15" t="n">
-        <v>1863.136248852293</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R15" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S15" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T15" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U15" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V15" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W15" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X15" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y15" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>278.5276838214469</v>
+        <v>1155.078879867057</v>
       </c>
       <c r="C16" t="n">
-        <v>278.5276838214469</v>
+        <v>983.1063167459732</v>
       </c>
       <c r="D16" t="n">
-        <v>278.5276838214469</v>
+        <v>819.7895438727439</v>
       </c>
       <c r="E16" t="n">
-        <v>278.5276838214469</v>
+        <v>653.5813380255975</v>
       </c>
       <c r="F16" t="n">
-        <v>278.5276838214469</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="G16" t="n">
-        <v>278.5276838214469</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="H16" t="n">
-        <v>154.217186531507</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I16" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J16" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K16" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L16" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M16" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N16" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O16" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P16" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q16" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R16" t="n">
-        <v>2187.823032372085</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S16" t="n">
-        <v>2017.687984891219</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T16" t="n">
-        <v>1774.348637117119</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="U16" t="n">
-        <v>1494.164188617424</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="V16" t="n">
-        <v>1212.452721225452</v>
+        <v>2089.003917271063</v>
       </c>
       <c r="W16" t="n">
-        <v>937.6003173979655</v>
+        <v>1814.151513443576</v>
       </c>
       <c r="X16" t="n">
-        <v>695.0364208437705</v>
+        <v>1571.587616889381</v>
       </c>
       <c r="Y16" t="n">
-        <v>468.6936525335126</v>
+        <v>1345.244848579123</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N17" t="n">
-        <v>3561.711740982687</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O17" t="n">
-        <v>4406.8563911335</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291427</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5598,13 +5600,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>1021.509065974867</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N18" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
         <v>1910.990343986338</v>
@@ -5695,25 +5697,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>2235.67712750613</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>2235.67712750613</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>2119.408873334071</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="W19" t="n">
-        <v>1844.556469506584</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="X19" t="n">
-        <v>1601.992572952389</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="Y19" t="n">
         <v>1375.649804642131</v>
@@ -5768,7 +5770,7 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5777,7 +5779,7 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
         <v>4789.842805209199</v>
@@ -5838,7 +5840,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N21" t="n">
         <v>1910.990343986338</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>437.5920494001418</v>
+        <v>584.328514724526</v>
       </c>
       <c r="C22" t="n">
-        <v>265.6194862790578</v>
+        <v>412.355951603442</v>
       </c>
       <c r="D22" t="n">
-        <v>102.3027134058285</v>
+        <v>412.355951603442</v>
       </c>
       <c r="E22" t="n">
-        <v>102.3027134058285</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F22" t="n">
-        <v>102.3027134058285</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5935,25 +5937,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2176.752350469914</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>1933.413002695814</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1653.228554196118</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1371.517086804147</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>1096.66468297666</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>854.1007864224655</v>
+        <v>810.671283034784</v>
       </c>
       <c r="Y22" t="n">
-        <v>627.7580181122075</v>
+        <v>584.328514724526</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>1180.414480198223</v>
+        <v>533.9931985757493</v>
       </c>
       <c r="L23" t="n">
-        <v>2110.0395278175</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M23" t="n">
-        <v>2110.0395278175</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N23" t="n">
-        <v>3086.290586304201</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O23" t="n">
-        <v>3931.435236455013</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P23" t="n">
-        <v>4639.71451561294</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q23" t="n">
-        <v>5095.799995117123</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6066,25 +6068,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L24" t="n">
-        <v>939.1015214887346</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="M24" t="n">
-        <v>939.1015214887346</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q24" t="n">
         <v>1910.990343986338</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1185.483835930065</v>
+        <v>437.5920494001418</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808982</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357522</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6172,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>2176.752350469914</v>
       </c>
       <c r="T25" t="n">
-        <v>2282.715740818957</v>
+        <v>1933.413002695814</v>
       </c>
       <c r="U25" t="n">
-        <v>2282.715740818957</v>
+        <v>1653.228554196118</v>
       </c>
       <c r="V25" t="n">
-        <v>2119.408873334071</v>
+        <v>1371.517086804147</v>
       </c>
       <c r="W25" t="n">
-        <v>1844.556469506584</v>
+        <v>1096.66468297666</v>
       </c>
       <c r="X25" t="n">
-        <v>1601.992572952389</v>
+        <v>854.1007864224655</v>
       </c>
       <c r="Y25" t="n">
-        <v>1375.649804642131</v>
+        <v>627.7580181122075</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>1180.414480198223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L26" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M26" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N26" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6303,22 +6305,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L27" t="n">
-        <v>939.1015214887346</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M27" t="n">
-        <v>1021.509065974867</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N27" t="n">
-        <v>1021.509065974867</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P27" t="n">
         <v>1910.990343986338</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>409.4157547709034</v>
+        <v>648.2727960958064</v>
       </c>
       <c r="C28" t="n">
-        <v>409.4157547709034</v>
+        <v>476.3002329747223</v>
       </c>
       <c r="D28" t="n">
-        <v>246.0989818976742</v>
+        <v>476.3002329747223</v>
       </c>
       <c r="E28" t="n">
-        <v>246.0989818976742</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F28" t="n">
-        <v>246.0989818976742</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G28" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
         <v>102.3027134058285</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="X28" t="n">
-        <v>742.8905159778161</v>
+        <v>1064.78153311813</v>
       </c>
       <c r="Y28" t="n">
-        <v>516.5477476675582</v>
+        <v>838.4387648078721</v>
       </c>
     </row>
     <row r="29">
@@ -6470,19 +6472,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2110.0395278175</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>3086.290586304201</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6543,22 +6545,22 @@
         <v>374.0002026854196</v>
       </c>
       <c r="K30" t="n">
-        <v>964.4851292537592</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L30" t="n">
-        <v>964.4851292537592</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M30" t="n">
-        <v>964.4851292537592</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N30" t="n">
-        <v>964.4851292537592</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="O30" t="n">
-        <v>964.4851292537592</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P30" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1185.483835930065</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C31" t="n">
-        <v>1013.511272808982</v>
+        <v>344.5751845464741</v>
       </c>
       <c r="D31" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>2282.715740818957</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>2119.408873334071</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>1844.556469506584</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>1601.992572952389</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y31" t="n">
-        <v>1375.649804642131</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="32">
@@ -6698,25 +6700,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>195.4640539534684</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>195.4640539534684</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q32" t="n">
         <v>5115.135670291427</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C33" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D33" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E33" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F33" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G33" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H33" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>3306.448039710919</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L33" t="n">
-        <v>3306.448039710919</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M33" t="n">
-        <v>4025.820723818557</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N33" t="n">
-        <v>5115.135670291427</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O33" t="n">
-        <v>5115.135670291427</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P33" t="n">
-        <v>5115.135670291427</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q33" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R33" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S33" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T33" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U33" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V33" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W33" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X33" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y33" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1185.483835930065</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="C34" t="n">
-        <v>1013.511272808982</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357522</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886057</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="G34" t="n">
         <v>345.8675501573982</v>
@@ -6880,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T34" t="n">
-        <v>2039.376393044857</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U34" t="n">
-        <v>1759.191944545161</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V34" t="n">
-        <v>1759.191944545161</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W34" t="n">
-        <v>1759.191944545161</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X34" t="n">
-        <v>1601.992572952389</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y34" t="n">
-        <v>1375.649804642131</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
     <row r="35">
@@ -6911,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P35" t="n">
         <v>5115.135670291427</v>
@@ -6971,16 +6973,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7019,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>345.8675501573982</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C37" t="n">
-        <v>345.8675501573982</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D37" t="n">
-        <v>345.8675501573982</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E37" t="n">
-        <v>345.8675501573982</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2085.027851227171</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>1841.688503453071</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>1561.504054953375</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V37" t="n">
-        <v>1279.792587561404</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W37" t="n">
-        <v>1004.940183733917</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X37" t="n">
-        <v>762.3762871797219</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y37" t="n">
-        <v>536.0335188694639</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="38">
@@ -7166,7 +7168,7 @@
         <v>435.0679631883233</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7190,10 +7192,10 @@
         <v>4935.721337874071</v>
       </c>
       <c r="P38" t="n">
-        <v>4997.579335409525</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C39" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D39" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E39" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F39" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>3306.448039710919</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K39" t="n">
-        <v>3306.448039710919</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L39" t="n">
-        <v>3306.448039710919</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M39" t="n">
-        <v>4025.820723818557</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N39" t="n">
-        <v>5115.135670291427</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="O39" t="n">
-        <v>5115.135670291427</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P39" t="n">
-        <v>5115.135670291427</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S39" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T39" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U39" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V39" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W39" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X39" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y39" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3375.975369221655</v>
+        <v>3205.84032174079</v>
       </c>
       <c r="C40" t="n">
-        <v>3204.002806100571</v>
+        <v>3033.867758619706</v>
       </c>
       <c r="D40" t="n">
-        <v>3078.518911370144</v>
+        <v>3033.867758619706</v>
       </c>
       <c r="E40" t="n">
-        <v>3078.518911370144</v>
+        <v>3033.867758619706</v>
       </c>
       <c r="F40" t="n">
-        <v>3078.518911370144</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="G40" t="n">
-        <v>3078.518911370144</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="H40" t="n">
         <v>2934.722642878299</v>
@@ -7357,25 +7359,25 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S40" t="n">
-        <v>5115.135670291427</v>
+        <v>4945.000622810562</v>
       </c>
       <c r="T40" t="n">
-        <v>4871.796322517327</v>
+        <v>4701.661275036462</v>
       </c>
       <c r="U40" t="n">
-        <v>4591.611874017632</v>
+        <v>4421.476826536767</v>
       </c>
       <c r="V40" t="n">
-        <v>4309.90040662566</v>
+        <v>4139.765359144795</v>
       </c>
       <c r="W40" t="n">
-        <v>4035.048002798173</v>
+        <v>3864.912955317308</v>
       </c>
       <c r="X40" t="n">
-        <v>3792.484106243979</v>
+        <v>3622.349058763114</v>
       </c>
       <c r="Y40" t="n">
-        <v>3566.14133793372</v>
+        <v>3396.006290452855</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>778.2939366498906</v>
+        <v>1432.173693745164</v>
       </c>
       <c r="C41" t="n">
-        <v>778.2939366498906</v>
+        <v>1005.272963758465</v>
       </c>
       <c r="D41" t="n">
-        <v>778.2939366498906</v>
+        <v>1005.272963758465</v>
       </c>
       <c r="E41" t="n">
-        <v>352.3169967977481</v>
+        <v>774.1051982793369</v>
       </c>
       <c r="F41" t="n">
-        <v>352.3169967977481</v>
+        <v>774.1051982793369</v>
       </c>
       <c r="G41" t="n">
-        <v>352.3169967977481</v>
+        <v>369.7661358687856</v>
       </c>
       <c r="H41" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I41" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J41" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K41" t="n">
-        <v>54.44861827178296</v>
+        <v>80.53897563800069</v>
       </c>
       <c r="L41" t="n">
-        <v>701.0259602492056</v>
+        <v>970.2737227554036</v>
       </c>
       <c r="M41" t="n">
-        <v>1374.82761136252</v>
+        <v>1860.008469872806</v>
       </c>
       <c r="N41" t="n">
-        <v>2048.629262475834</v>
+        <v>2749.743216990209</v>
       </c>
       <c r="O41" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="P41" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q41" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R41" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S41" t="n">
-        <v>2618.063619462288</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T41" t="n">
-        <v>2397.138048506922</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="U41" t="n">
-        <v>2138.783139103334</v>
+        <v>3011.240092655207</v>
       </c>
       <c r="V41" t="n">
-        <v>1781.293724229584</v>
+        <v>2653.750677781457</v>
       </c>
       <c r="W41" t="n">
-        <v>1384.902374529931</v>
+        <v>2257.359328081804</v>
       </c>
       <c r="X41" t="n">
-        <v>1384.902374529931</v>
+        <v>2257.359328081804</v>
       </c>
       <c r="Y41" t="n">
-        <v>979.5651044848208</v>
+        <v>1852.022058036694</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C42" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D42" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E42" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F42" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G42" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H42" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I42" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J42" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K42" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L42" t="n">
-        <v>54.44861827178296</v>
+        <v>101.1158936885245</v>
       </c>
       <c r="M42" t="n">
-        <v>728.2502693850971</v>
+        <v>990.8506408059274</v>
       </c>
       <c r="N42" t="n">
-        <v>1402.051920498411</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="O42" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P42" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q42" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R42" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S42" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T42" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U42" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V42" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W42" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X42" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y42" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1137.62974079602</v>
+        <v>748.1972702422584</v>
       </c>
       <c r="C43" t="n">
-        <v>965.6571776749358</v>
+        <v>576.2247071211743</v>
       </c>
       <c r="D43" t="n">
-        <v>802.3404048017065</v>
+        <v>576.2247071211743</v>
       </c>
       <c r="E43" t="n">
-        <v>636.1321989545601</v>
+        <v>410.0165012740279</v>
       </c>
       <c r="F43" t="n">
-        <v>464.2704247291205</v>
+        <v>238.1547270485883</v>
       </c>
       <c r="G43" t="n">
-        <v>298.0134550233526</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H43" t="n">
-        <v>154.217186531507</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I43" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J43" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K43" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L43" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M43" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N43" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O43" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P43" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q43" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R43" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S43" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T43" t="n">
-        <v>2234.861645684911</v>
+        <v>2008.971436981848</v>
       </c>
       <c r="U43" t="n">
-        <v>2234.861645684911</v>
+        <v>1728.786988482153</v>
       </c>
       <c r="V43" t="n">
-        <v>2071.554778200025</v>
+        <v>1447.075521090182</v>
       </c>
       <c r="W43" t="n">
-        <v>1796.702374372538</v>
+        <v>1172.223117262695</v>
       </c>
       <c r="X43" t="n">
-        <v>1554.138477818344</v>
+        <v>974.5400385525163</v>
       </c>
       <c r="Y43" t="n">
-        <v>1327.795709508086</v>
+        <v>748.1972702422584</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>756.6560592082994</v>
+        <v>1020.453694912912</v>
       </c>
       <c r="C44" t="n">
-        <v>756.6560592082994</v>
+        <v>593.5529649262119</v>
       </c>
       <c r="D44" t="n">
-        <v>756.6560592082994</v>
+        <v>170.2603441112121</v>
       </c>
       <c r="E44" t="n">
-        <v>756.6560592082994</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="F44" t="n">
-        <v>756.6560592082994</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G44" t="n">
-        <v>352.3169967977481</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H44" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I44" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J44" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K44" t="n">
-        <v>54.44861827178296</v>
+        <v>144.4381087155731</v>
       </c>
       <c r="L44" t="n">
-        <v>728.2502693850971</v>
+        <v>144.4381087155731</v>
       </c>
       <c r="M44" t="n">
-        <v>1402.051920498411</v>
+        <v>1034.172855832976</v>
       </c>
       <c r="N44" t="n">
-        <v>2048.629262475834</v>
+        <v>1923.907602950379</v>
       </c>
       <c r="O44" t="n">
-        <v>2048.629262475834</v>
+        <v>2769.052253101191</v>
       </c>
       <c r="P44" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="Q44" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R44" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.430913589148</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T44" t="n">
-        <v>2722.430913589148</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="U44" t="n">
-        <v>2722.430913589148</v>
+        <v>3011.240092655207</v>
       </c>
       <c r="V44" t="n">
-        <v>2364.941498715398</v>
+        <v>2653.750677781457</v>
       </c>
       <c r="W44" t="n">
-        <v>1968.550149015745</v>
+        <v>2257.359328081804</v>
       </c>
       <c r="X44" t="n">
-        <v>1556.830150183492</v>
+        <v>1845.639329249551</v>
       </c>
       <c r="Y44" t="n">
-        <v>1151.492880138382</v>
+        <v>1440.302059204442</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C45" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D45" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E45" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F45" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G45" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H45" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I45" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J45" t="n">
-        <v>54.44861827178296</v>
+        <v>343.5952466224115</v>
       </c>
       <c r="K45" t="n">
-        <v>54.44861827178296</v>
+        <v>934.0801731907511</v>
       </c>
       <c r="L45" t="n">
-        <v>515.5329466256644</v>
+        <v>934.0801731907511</v>
       </c>
       <c r="M45" t="n">
-        <v>1189.334597738979</v>
+        <v>934.0801731907511</v>
       </c>
       <c r="N45" t="n">
-        <v>1863.136248852293</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="O45" t="n">
-        <v>1863.136248852293</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="P45" t="n">
-        <v>1863.136248852293</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="Q45" t="n">
-        <v>1863.136248852293</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R45" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S45" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T45" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U45" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V45" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W45" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X45" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y45" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>739.040692389239</v>
+        <v>845.0744055280652</v>
       </c>
       <c r="C46" t="n">
-        <v>630.4786305762669</v>
+        <v>673.1018424069812</v>
       </c>
       <c r="D46" t="n">
-        <v>630.4786305762669</v>
+        <v>509.7850695337519</v>
       </c>
       <c r="E46" t="n">
-        <v>464.2704247291205</v>
+        <v>509.7850695337519</v>
       </c>
       <c r="F46" t="n">
-        <v>464.2704247291205</v>
+        <v>337.9232953083123</v>
       </c>
       <c r="G46" t="n">
-        <v>298.0134550233526</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="H46" t="n">
-        <v>154.217186531507</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I46" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J46" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K46" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L46" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M46" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N46" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O46" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P46" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q46" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R46" t="n">
-        <v>2234.861645684911</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="S46" t="n">
-        <v>2234.861645684911</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="T46" t="n">
-        <v>2234.861645684911</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="U46" t="n">
-        <v>1954.677197185216</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="V46" t="n">
-        <v>1672.965729793244</v>
+        <v>1778.999442932071</v>
       </c>
       <c r="W46" t="n">
-        <v>1398.113325965757</v>
+        <v>1504.147039104584</v>
       </c>
       <c r="X46" t="n">
-        <v>1155.549429411563</v>
+        <v>1261.583142550389</v>
       </c>
       <c r="Y46" t="n">
-        <v>929.2066611013047</v>
+        <v>1035.240374240131</v>
       </c>
     </row>
   </sheetData>
@@ -7976,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>203.8631344095814</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M2" t="n">
-        <v>718.0389912967188</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N2" t="n">
-        <v>717.8873512317331</v>
+        <v>221.9944283264504</v>
       </c>
       <c r="O2" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
@@ -8000,7 +8002,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8057,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
@@ -8064,19 +8066,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>488.8385263243295</v>
+        <v>383.3462223301476</v>
       </c>
       <c r="N3" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>702.3785696021157</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8216,19 +8218,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>716.3723291920963</v>
+        <v>44.49310412327424</v>
       </c>
       <c r="L5" t="n">
-        <v>691.4204686724437</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M5" t="n">
-        <v>718.0389912967188</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O5" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
@@ -8298,19 +8300,19 @@
         <v>618.848654609434</v>
       </c>
       <c r="L6" t="n">
-        <v>703.1228151115166</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>921.8187472975834</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>354.9577047674418</v>
       </c>
       <c r="P6" t="n">
-        <v>571.6708946380166</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8456,25 +8458,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>718.9197708299099</v>
+        <v>827.0187399383606</v>
       </c>
       <c r="M8" t="n">
-        <v>229.8472855996736</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N8" t="n">
-        <v>717.8873512317331</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P8" t="n">
-        <v>718.1830902075183</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,10 +8531,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
@@ -8541,10 +8543,10 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>701.9507566108286</v>
+        <v>508.5750866678849</v>
       </c>
       <c r="O9" t="n">
-        <v>700.6875489186023</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>718.9197708299099</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M11" t="n">
-        <v>324.2735691221864</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>717.8873512317331</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O11" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>103.546394694253</v>
       </c>
       <c r="Q11" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>20.61111433333334</v>
@@ -8775,22 +8777,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>703.704508909615</v>
+        <v>392.1285517787043</v>
       </c>
       <c r="N12" t="n">
-        <v>701.9507566108286</v>
+        <v>920.064994998797</v>
       </c>
       <c r="O12" t="n">
-        <v>488.9136355342238</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,22 +8926,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>214.1347649775906</v>
       </c>
       <c r="K14" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>718.9197708299099</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M14" t="n">
-        <v>718.0389912967188</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N14" t="n">
-        <v>690.388049074267</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
         <v>37.5753618102313</v>
@@ -9009,25 +9011,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>488.256832526231</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>703.704508909615</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>398.5805034488242</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
@@ -9173,7 +9175,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>489.184786214375</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9182,10 +9184,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>472.1756697257304</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,16 +9248,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>106.3367244377138</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9416,10 +9418,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>466.324307620685</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>464.8736204150517</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9486,10 +9488,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9635,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>471.8155959159414</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9656,10 +9658,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>54.56363491934598</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,19 +9716,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>867.7664080100944</v>
+        <v>509.7471451685728</v>
       </c>
       <c r="M24" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1003.048909524252</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9735,7 +9737,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>952.6858336296069</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9887,16 +9889,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>356.8654072451563</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,25 +9953,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>106.3367244377138</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>921.6378271075471</v>
+        <v>255.8057257768496</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
@@ -10118,22 +10120,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>489.184786214375</v>
       </c>
       <c r="O29" t="n">
-        <v>791.8596365713911</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,7 +10193,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
@@ -10203,13 +10205,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>852.2551465529502</v>
       </c>
       <c r="P30" t="n">
-        <v>509.0028996591719</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>123.5223236751217</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10364,10 +10366,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>35.03264989479647</v>
@@ -10428,25 +10430,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10598,10 +10600,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>891.0724241548241</v>
+        <v>356.8654072451563</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10665,25 +10667,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10838,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>100.0581876036193</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>217.3512730059682</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10901,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
         <v>22.39923383333334</v>
@@ -10908,19 +10910,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>383.4213315400418</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11060,19 +11062,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>44.49310412327424</v>
       </c>
       <c r="L41" t="n">
-        <v>691.4204686724437</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M41" t="n">
-        <v>718.0389912967188</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N41" t="n">
-        <v>717.8873512317331</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O41" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>37.5753618102313</v>
@@ -11142,16 +11144,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>52.02835575029422</v>
       </c>
       <c r="M42" t="n">
-        <v>703.704508909615</v>
+        <v>921.8187472975834</v>
       </c>
       <c r="N42" t="n">
-        <v>701.9507566108286</v>
+        <v>920.064994998797</v>
       </c>
       <c r="O42" t="n">
-        <v>488.9136355342238</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11297,28 +11299,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>109.037682989509</v>
       </c>
       <c r="L44" t="n">
-        <v>718.9197708299099</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M44" t="n">
-        <v>718.0389912967188</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N44" t="n">
-        <v>690.388049074267</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>718.1830902075183</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,19 +11375,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>488.256832526231</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>703.704508909615</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>701.9507566108286</v>
+        <v>425.7272987035383</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
@@ -11394,10 +11396,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23264,10 +23266,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>324.3382095529132</v>
       </c>
       <c r="F11" t="n">
-        <v>267.5156322128093</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -23306,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>183.885313498597</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -23428,10 +23430,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>19.29091348988661</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>203.9015968108142</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23546,22 +23548,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>260.2085051553251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>19.29091348988661</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>163.7887810877128</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>12.8063191292122</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
@@ -24139,10 +24141,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24175,7 +24177,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>63.52994056050434</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>20.53473220669966</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,16 +24414,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>63.52994056050434</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>82.20363605725684</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>129.0261359073655</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>91.97701519844304</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>15.45161649254044</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
@@ -25132,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>84.51087971180868</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -25321,16 +25323,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>19.29091348988669</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>37.45454936137475</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>71.9894918991921</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25597,7 +25599,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25625,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>216.3914244920338</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>192.8610826292847</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,19 +25839,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>44.43200966557643</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25862,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>24.76142792783287</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>324.3382095529132</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26023,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>62.77639629503082</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>25.3180484981672</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>703575.5883423762</v>
+        <v>707012.8924854406</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>703575.5883423762</v>
+        <v>707012.8924854406</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>703575.5883423762</v>
+        <v>707012.8924854406</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>462470.4335630483</v>
+        <v>545076.9297856212</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>462470.4335630482</v>
+        <v>545076.9297856214</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>689017.9504824687</v>
+        <v>689017.9504824688</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>689017.9504824688</v>
+        <v>689017.9504824686</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>689017.9504824687</v>
+        <v>689017.9504824688</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>689017.9504824688</v>
+        <v>689017.9504824687</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>689017.9504824688</v>
+        <v>689017.9504824687</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>689017.9504824688</v>
+        <v>689017.9504824687</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>462470.4335630483</v>
+        <v>545076.9297856214</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>462470.4335630483</v>
+        <v>545076.9297856214</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>334904.5341064188</v>
       </c>
       <c r="C2" t="n">
-        <v>334904.534106419</v>
+        <v>334904.5341064188</v>
       </c>
       <c r="D2" t="n">
-        <v>334904.534106419</v>
+        <v>334904.5341064188</v>
       </c>
       <c r="E2" t="n">
-        <v>216916.9051718539</v>
+        <v>255659.2757639539</v>
       </c>
       <c r="F2" t="n">
-        <v>216916.9051718539</v>
+        <v>255659.2757639539</v>
       </c>
       <c r="G2" t="n">
-        <v>323167.4818040324</v>
+        <v>323167.4818040323</v>
       </c>
       <c r="H2" t="n">
+        <v>323167.4818040323</v>
+      </c>
+      <c r="I2" t="n">
+        <v>323167.4818040323</v>
+      </c>
+      <c r="J2" t="n">
         <v>323167.4818040322</v>
-      </c>
-      <c r="I2" t="n">
-        <v>323167.4818040322</v>
-      </c>
-      <c r="J2" t="n">
-        <v>323167.4818040324</v>
       </c>
       <c r="K2" t="n">
         <v>323167.4818040322</v>
       </c>
       <c r="L2" t="n">
-        <v>323167.4818040323</v>
+        <v>323167.4818040322</v>
       </c>
       <c r="M2" t="n">
-        <v>323167.4818040324</v>
+        <v>323167.4818040322</v>
       </c>
       <c r="N2" t="n">
-        <v>323167.4818040323</v>
+        <v>323167.4818040321</v>
       </c>
       <c r="O2" t="n">
-        <v>216916.9051718539</v>
+        <v>255659.275763954</v>
       </c>
       <c r="P2" t="n">
-        <v>216916.9051718539</v>
+        <v>255659.275763954</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228087.303763684</v>
+        <v>301182.4016749751</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>163951.1208101861</v>
+        <v>104169.2797816197</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>178076.9284887798</v>
+        <v>235145.2102775613</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136841.7607842109</v>
+        <v>101925.0195934252</v>
       </c>
       <c r="C4" t="n">
-        <v>136841.760784211</v>
+        <v>101925.0195934252</v>
       </c>
       <c r="D4" t="n">
-        <v>136841.7607842109</v>
+        <v>101925.0195934252</v>
       </c>
       <c r="E4" t="n">
-        <v>19722.71048820159</v>
+        <v>23263.13375555789</v>
       </c>
       <c r="F4" t="n">
-        <v>19722.71048820158</v>
+        <v>23263.13375555789</v>
       </c>
       <c r="G4" t="n">
         <v>29432.2870559115</v>
@@ -26436,7 +26438,7 @@
         <v>29432.2870559115</v>
       </c>
       <c r="I4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591151</v>
       </c>
       <c r="J4" t="n">
         <v>29432.2870559115</v>
@@ -26454,10 +26456,10 @@
         <v>29432.2870559115</v>
       </c>
       <c r="O4" t="n">
-        <v>19722.71048820158</v>
+        <v>23263.13375555789</v>
       </c>
       <c r="P4" t="n">
-        <v>19722.71048820159</v>
+        <v>23263.13375555789</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75008.54988655505</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="C5" t="n">
-        <v>75008.54988655505</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="D5" t="n">
-        <v>75008.54988655505</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="E5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="F5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="P5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054353</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-105033.0803280312</v>
+        <v>-156472.7827425251</v>
       </c>
       <c r="C6" t="n">
-        <v>123054.223435653</v>
+        <v>144709.6189324501</v>
       </c>
       <c r="D6" t="n">
-        <v>123054.223435653</v>
+        <v>144709.6189324501</v>
       </c>
       <c r="E6" t="n">
-        <v>155813.2447970973</v>
+        <v>177753.8464278525</v>
       </c>
       <c r="F6" t="n">
-        <v>155813.2447970973</v>
+        <v>177753.8464278525</v>
       </c>
       <c r="G6" t="n">
-        <v>52034.01174950517</v>
+        <v>111815.8527780714</v>
       </c>
       <c r="H6" t="n">
-        <v>215985.132559691</v>
+        <v>215985.1325596911</v>
       </c>
       <c r="I6" t="n">
-        <v>215985.132559691</v>
+        <v>215985.1325596911</v>
       </c>
       <c r="J6" t="n">
-        <v>37908.20407091144</v>
+        <v>-19160.07771787029</v>
       </c>
       <c r="K6" t="n">
         <v>215985.132559691</v>
       </c>
       <c r="L6" t="n">
-        <v>215985.1325596911</v>
+        <v>215985.132559691</v>
       </c>
       <c r="M6" t="n">
-        <v>215985.1325596912</v>
+        <v>215985.132559691</v>
       </c>
       <c r="N6" t="n">
-        <v>215985.1325596911</v>
+        <v>215985.1325596909</v>
       </c>
       <c r="O6" t="n">
-        <v>155813.2447970973</v>
+        <v>177753.8464278526</v>
       </c>
       <c r="P6" t="n">
-        <v>155813.2447970973</v>
+        <v>177753.8464278526</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="C4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="D4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="E4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="F4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="P4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>598.1761891755698</v>
+        <v>380.0619507876014</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.6077283972871</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>598.1761891755698</v>
+        <v>380.0619507876014</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>381.4173139857734</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
@@ -27439,13 +27441,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>317.1046250514749</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>134.4062914546851</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>91.09328970971529</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>136.193197358329</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>32.49731911169687</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,7 +27675,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>59.64236734312301</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
@@ -27789,10 +27791,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>1.279441954814814</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27859,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>302.3592065432186</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,13 +27915,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>108.6706986065899</v>
       </c>
     </row>
     <row r="9">
@@ -28023,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>12.72778536844211</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>48.89490464996143</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34696,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>168.0985336147721</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M2" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N2" t="n">
-        <v>680.607728397287</v>
+        <v>184.7148054920043</v>
       </c>
       <c r="O2" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34720,7 +34722,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34784,19 +34786,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7417458120015</v>
+        <v>360.2494418178196</v>
       </c>
       <c r="N3" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>680.607728397287</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,19 +34938,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>680.607728397287</v>
+        <v>8.728503328464901</v>
       </c>
       <c r="L5" t="n">
-        <v>653.1084262398208</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M5" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O5" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35018,19 +35020,19 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L6" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>331.7858150452196</v>
       </c>
       <c r="P6" t="n">
-        <v>549.900053433188</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35176,25 +35178,25 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>680.607728397287</v>
+        <v>788.7066975057377</v>
       </c>
       <c r="M8" t="n">
-        <v>192.4160227002418</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N8" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P8" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,10 +35263,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>680.607728397287</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="O9" t="n">
-        <v>677.5156591963801</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M11" t="n">
-        <v>286.8423062227546</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O11" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>65.97103288402172</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35495,22 +35497,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>680.607728397287</v>
+        <v>369.0317712663763</v>
       </c>
       <c r="N12" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O12" t="n">
-        <v>465.7417458120016</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>184.7148054920041</v>
       </c>
       <c r="K14" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M14" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N14" t="n">
-        <v>653.1084262398209</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35729,25 +35731,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>465.7417458120015</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>376.8096622439955</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
@@ -35893,7 +35895,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>451.905163379929</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35902,10 +35904,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>436.0509951211323</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>83.23994392538586</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36136,10 +36138,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>428.7489458104537</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36206,10 +36208,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36355,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>436.0509951211321</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36376,10 +36378,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>19.53098502454951</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>845.2513212958648</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36455,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>914.373791196984</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36607,16 +36609,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>319.4744478891323</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>83.23994392538586</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>898.4659373853249</v>
+        <v>232.6338360546274</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36838,22 +36840,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>451.905163379929</v>
       </c>
       <c r="O29" t="n">
-        <v>754.4686772153671</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36913,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36923,13 +36925,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>829.083256830728</v>
       </c>
       <c r="P30" t="n">
-        <v>487.2320584543432</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>94.10236418953517</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37084,10 +37086,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37318,10 +37320,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>853.6814647988001</v>
+        <v>319.4744478891323</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37558,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>62.48282579338804</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37628,19 +37630,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>360.2494418178196</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,19 +37782,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>8.728503328464901</v>
       </c>
       <c r="L41" t="n">
-        <v>653.1084262398208</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M41" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N41" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O41" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37862,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>29.51326903606467</v>
       </c>
       <c r="M42" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N42" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O42" t="n">
-        <v>465.7417458120016</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>73.27308219469965</v>
       </c>
       <c r="L44" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N44" t="n">
-        <v>653.1084262398209</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>680.607728397287</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>465.7417458120015</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>680.607728397287</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38114,10 +38116,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1066921.919675151</v>
+        <v>1065946.716587604</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12157779.51246665</v>
+        <v>12157779.51246666</v>
       </c>
     </row>
     <row r="8">
@@ -673,7 +673,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>83.1910467349705</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>75.32281115118167</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>4.378995526348206</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>27.2773136898119</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
@@ -901,7 +901,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>386.5623754951528</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
@@ -910,10 +910,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>291.3293013934103</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1059,19 +1059,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>102.041237801374</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>253.6542084583245</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>292.6131987380687</v>
+        <v>264.2110024576913</v>
       </c>
     </row>
     <row r="9">
@@ -1296,19 +1296,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>192.0110496463976</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1372,25 +1372,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>97.37896090070777</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>189.7480664754402</v>
       </c>
     </row>
     <row r="12">
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.378995526348037</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>238.5792768260961</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>215.1580977960355</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>96.0836988015694</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
@@ -1669,7 +1669,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -1770,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486159</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
@@ -2007,10 +2007,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>42.31046081014874</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2019,10 +2019,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>211.2730214979432</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
@@ -2149,7 +2149,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446598</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2304,7 +2304,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>219.6035253819533</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2481,13 +2481,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>104.9037564455521</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>35.51998788130945</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2775,7 +2775,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2955,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>69.70658994605395</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>181.5044108289257</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3189,7 +3189,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>149.1427835161697</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3331,7 +3331,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439315</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>98.15366458399268</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3523,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>98.15366458399308</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3745,19 +3745,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>228.8560878243364</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>186.5146679205617</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>96.44420510686378</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>195.7062479230765</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3985,16 +3985,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>97.37896090070777</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>176.5674969673015</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4140,7 +4140,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>253.5763042198842</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2177.531292217814</v>
+        <v>1857.223590145616</v>
       </c>
       <c r="C2" t="n">
-        <v>1750.630562231114</v>
+        <v>1430.322860158916</v>
       </c>
       <c r="D2" t="n">
-        <v>1327.337941416114</v>
+        <v>1007.030239343917</v>
       </c>
       <c r="E2" t="n">
-        <v>901.3610015639716</v>
+        <v>581.0532994917743</v>
       </c>
       <c r="F2" t="n">
-        <v>476.2368197533718</v>
+        <v>155.9291176811745</v>
       </c>
       <c r="G2" t="n">
         <v>71.89775734282044</v>
@@ -4330,25 +4330,25 @@
         <v>71.89775734282044</v>
       </c>
       <c r="J2" t="n">
-        <v>71.89775734282044</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K2" t="n">
-        <v>787.4060653183195</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L2" t="n">
-        <v>1677.140812435722</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="M2" t="n">
-        <v>2566.875559553125</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="N2" t="n">
-        <v>2749.743216990209</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="O2" t="n">
-        <v>3594.887867141022</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="P2" t="n">
-        <v>3594.887867141022</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q2" t="n">
         <v>3594.887867141022</v>
@@ -4369,13 +4369,13 @@
         <v>3490.520573014162</v>
       </c>
       <c r="W2" t="n">
-        <v>3414.436925386706</v>
+        <v>3094.129223314509</v>
       </c>
       <c r="X2" t="n">
-        <v>3002.716926554453</v>
+        <v>2682.409224482256</v>
       </c>
       <c r="Y2" t="n">
-        <v>2597.379656509343</v>
+        <v>2277.071954437146</v>
       </c>
     </row>
     <row r="3">
@@ -4409,22 +4409,22 @@
         <v>71.89775734282044</v>
       </c>
       <c r="J3" t="n">
-        <v>343.5952466224115</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K3" t="n">
-        <v>343.5952466224115</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L3" t="n">
-        <v>343.5952466224115</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="M3" t="n">
-        <v>700.2421940220529</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="N3" t="n">
-        <v>700.2421940220529</v>
+        <v>526.9586330490793</v>
       </c>
       <c r="O3" t="n">
-        <v>700.2421940220529</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="P3" t="n">
         <v>1416.439911060551</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1685.592518590384</v>
+        <v>1824.296646185231</v>
       </c>
       <c r="C4" t="n">
-        <v>1685.592518590384</v>
+        <v>1824.296646185231</v>
       </c>
       <c r="D4" t="n">
-        <v>1658.039676479463</v>
+        <v>1824.296646185231</v>
       </c>
       <c r="E4" t="n">
-        <v>1658.039676479463</v>
+        <v>1824.296646185231</v>
       </c>
       <c r="F4" t="n">
-        <v>1658.039676479463</v>
+        <v>1824.296646185231</v>
       </c>
       <c r="G4" t="n">
         <v>1658.039676479463</v>
@@ -4512,28 +4512,28 @@
         <v>3594.887867141022</v>
       </c>
       <c r="R4" t="n">
-        <v>3594.887867141022</v>
+        <v>3547.849253828195</v>
       </c>
       <c r="S4" t="n">
-        <v>3424.752819660157</v>
+        <v>3377.71420634733</v>
       </c>
       <c r="T4" t="n">
-        <v>3181.413471886056</v>
+        <v>3134.37485857323</v>
       </c>
       <c r="U4" t="n">
-        <v>2901.22902338636</v>
+        <v>2854.190410073534</v>
       </c>
       <c r="V4" t="n">
-        <v>2619.51755599439</v>
+        <v>2572.478942681563</v>
       </c>
       <c r="W4" t="n">
-        <v>2344.665152166903</v>
+        <v>2297.626538854076</v>
       </c>
       <c r="X4" t="n">
-        <v>2102.101255612708</v>
+        <v>2055.062642299881</v>
       </c>
       <c r="Y4" t="n">
-        <v>1875.75848730245</v>
+        <v>1828.719873989623</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1740.66531331711</v>
+        <v>2475.399670743779</v>
       </c>
       <c r="C5" t="n">
-        <v>1313.76458333041</v>
+        <v>2048.498940757079</v>
       </c>
       <c r="D5" t="n">
-        <v>923.2975373757099</v>
+        <v>1625.206319942079</v>
       </c>
       <c r="E5" t="n">
-        <v>497.3205975235675</v>
+        <v>1199.229380089937</v>
       </c>
       <c r="F5" t="n">
-        <v>72.19641571296775</v>
+        <v>774.1051982793369</v>
       </c>
       <c r="G5" t="n">
-        <v>71.89775734282044</v>
+        <v>369.7661358687856</v>
       </c>
       <c r="H5" t="n">
         <v>71.89775734282044</v>
@@ -4567,28 +4567,28 @@
         <v>71.89775734282044</v>
       </c>
       <c r="J5" t="n">
-        <v>71.89775734282044</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K5" t="n">
-        <v>80.53897563800069</v>
+        <v>434.501216159716</v>
       </c>
       <c r="L5" t="n">
-        <v>970.2737227554036</v>
+        <v>1324.235963277119</v>
       </c>
       <c r="M5" t="n">
-        <v>1860.008469872806</v>
+        <v>2213.970710394522</v>
       </c>
       <c r="N5" t="n">
-        <v>2749.743216990209</v>
+        <v>2213.970710394522</v>
       </c>
       <c r="O5" t="n">
-        <v>3594.887867141022</v>
+        <v>3059.115360545334</v>
       </c>
       <c r="P5" t="n">
-        <v>3594.887867141022</v>
+        <v>3059.115360545334</v>
       </c>
       <c r="Q5" t="n">
-        <v>3594.887867141022</v>
+        <v>3515.200840049517</v>
       </c>
       <c r="R5" t="n">
         <v>3594.887867141022</v>
@@ -4597,22 +4597,22 @@
         <v>3594.887867141022</v>
       </c>
       <c r="T5" t="n">
-        <v>3373.962296185655</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U5" t="n">
-        <v>3373.962296185655</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V5" t="n">
-        <v>3373.962296185655</v>
+        <v>3300.615845531516</v>
       </c>
       <c r="W5" t="n">
-        <v>2977.570946486002</v>
+        <v>2904.224495831863</v>
       </c>
       <c r="X5" t="n">
-        <v>2565.850947653749</v>
+        <v>2896.544901040014</v>
       </c>
       <c r="Y5" t="n">
-        <v>2160.51367760864</v>
+        <v>2895.248035035309</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>71.89775734282044</v>
       </c>
       <c r="J6" t="n">
-        <v>71.89775734282044</v>
+        <v>343.5952466224115</v>
       </c>
       <c r="K6" t="n">
-        <v>662.38268391116</v>
+        <v>934.0801731907511</v>
       </c>
       <c r="L6" t="n">
-        <v>662.38268391116</v>
+        <v>1082.368360800129</v>
       </c>
       <c r="M6" t="n">
-        <v>1552.117431028563</v>
+        <v>1082.368360800129</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.117431028563</v>
+        <v>1082.368360800129</v>
       </c>
       <c r="O6" t="n">
-        <v>1880.58538792333</v>
+        <v>1082.368360800129</v>
       </c>
       <c r="P6" t="n">
-        <v>1880.58538792333</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="Q6" t="n">
-        <v>1880.58538792333</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R6" t="n">
         <v>1880.58538792333</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>513.1504836861761</v>
+        <v>1055.310311607333</v>
       </c>
       <c r="C7" t="n">
-        <v>341.1779205650921</v>
+        <v>883.3377484862492</v>
       </c>
       <c r="D7" t="n">
-        <v>238.1059631899669</v>
+        <v>720.0209756130199</v>
       </c>
       <c r="E7" t="n">
-        <v>71.89775734282044</v>
+        <v>553.8127697658734</v>
       </c>
       <c r="F7" t="n">
-        <v>71.89775734282044</v>
+        <v>381.9509955404339</v>
       </c>
       <c r="G7" t="n">
-        <v>71.89775734282044</v>
+        <v>215.694025834666</v>
       </c>
       <c r="H7" t="n">
         <v>71.89775734282044</v>
@@ -4755,22 +4755,22 @@
         <v>2252.310784755949</v>
       </c>
       <c r="T7" t="n">
-        <v>2008.971436981848</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="U7" t="n">
-        <v>1728.786988482153</v>
+        <v>1996.094412575823</v>
       </c>
       <c r="V7" t="n">
-        <v>1447.075521090182</v>
+        <v>1714.382945183852</v>
       </c>
       <c r="W7" t="n">
-        <v>1172.223117262695</v>
+        <v>1714.382945183852</v>
       </c>
       <c r="X7" t="n">
-        <v>929.6592207084997</v>
+        <v>1471.819048629657</v>
       </c>
       <c r="Y7" t="n">
-        <v>703.3164523982417</v>
+        <v>1245.476280319399</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2475.399670743779</v>
+        <v>1667.318862662971</v>
       </c>
       <c r="C8" t="n">
-        <v>2048.498940757079</v>
+        <v>1644.458536716675</v>
       </c>
       <c r="D8" t="n">
         <v>1625.206319942079</v>
@@ -4804,22 +4804,22 @@
         <v>71.89775734282044</v>
       </c>
       <c r="J8" t="n">
-        <v>71.89775734282044</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K8" t="n">
-        <v>71.89775734282044</v>
+        <v>1034.172855832976</v>
       </c>
       <c r="L8" t="n">
-        <v>852.7173878735008</v>
+        <v>1923.907602950379</v>
       </c>
       <c r="M8" t="n">
-        <v>1742.452134990904</v>
+        <v>1923.907602950379</v>
       </c>
       <c r="N8" t="n">
-        <v>2632.186882108307</v>
+        <v>1923.907602950379</v>
       </c>
       <c r="O8" t="n">
-        <v>3477.331532259119</v>
+        <v>2769.052253101191</v>
       </c>
       <c r="P8" t="n">
         <v>3477.331532259119</v>
@@ -4834,22 +4834,22 @@
         <v>3594.887867141022</v>
       </c>
       <c r="T8" t="n">
-        <v>3594.887867141022</v>
+        <v>3373.962296185655</v>
       </c>
       <c r="U8" t="n">
-        <v>3594.887867141022</v>
+        <v>3115.607386782067</v>
       </c>
       <c r="V8" t="n">
-        <v>3594.887867141022</v>
+        <v>2758.117971908317</v>
       </c>
       <c r="W8" t="n">
-        <v>3198.496517441368</v>
+        <v>2361.726622208664</v>
       </c>
       <c r="X8" t="n">
-        <v>3190.81692264952</v>
+        <v>1950.006623376411</v>
       </c>
       <c r="Y8" t="n">
-        <v>2895.248035035309</v>
+        <v>1683.126822914096</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>71.89775734282044</v>
       </c>
       <c r="I9" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J9" t="n">
-        <v>343.5952466224115</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K9" t="n">
-        <v>934.0801731907511</v>
+        <v>444.6858538584448</v>
       </c>
       <c r="L9" t="n">
-        <v>934.0801731907511</v>
+        <v>444.6858538584448</v>
       </c>
       <c r="M9" t="n">
-        <v>934.0801731907511</v>
+        <v>444.6858538584448</v>
       </c>
       <c r="N9" t="n">
-        <v>1416.439911060551</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="O9" t="n">
-        <v>1416.439911060551</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="P9" t="n">
-        <v>1416.439911060551</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="Q9" t="n">
-        <v>1880.58538792333</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R9" t="n">
         <v>1880.58538792333</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>515.5006629490681</v>
+        <v>1155.078879867057</v>
       </c>
       <c r="C10" t="n">
-        <v>343.5280998279841</v>
+        <v>983.1063167459732</v>
       </c>
       <c r="D10" t="n">
-        <v>343.5280998279841</v>
+        <v>819.7895438727439</v>
       </c>
       <c r="E10" t="n">
-        <v>343.5280998279841</v>
+        <v>653.5813380255975</v>
       </c>
       <c r="F10" t="n">
-        <v>171.6663256025445</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="G10" t="n">
-        <v>171.6663256025445</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="H10" t="n">
         <v>171.6663256025445</v>
@@ -4986,28 +4986,28 @@
         <v>2252.310784755949</v>
       </c>
       <c r="R10" t="n">
-        <v>2205.272171443122</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S10" t="n">
-        <v>2205.272171443122</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T10" t="n">
-        <v>2011.32161624474</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="U10" t="n">
-        <v>1731.137167745045</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="V10" t="n">
-        <v>1449.425700353074</v>
+        <v>2089.003917271063</v>
       </c>
       <c r="W10" t="n">
-        <v>1174.573296525587</v>
+        <v>1814.151513443576</v>
       </c>
       <c r="X10" t="n">
-        <v>932.0093999713918</v>
+        <v>1571.587616889381</v>
       </c>
       <c r="Y10" t="n">
-        <v>705.6666316611338</v>
+        <v>1345.244848579123</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1020.453694912912</v>
+        <v>1234.126251346466</v>
       </c>
       <c r="C11" t="n">
-        <v>593.5529649262119</v>
+        <v>1234.126251346466</v>
       </c>
       <c r="D11" t="n">
-        <v>170.2603441112121</v>
+        <v>1234.126251346466</v>
       </c>
       <c r="E11" t="n">
-        <v>71.89775734282044</v>
+        <v>1234.126251346466</v>
       </c>
       <c r="F11" t="n">
-        <v>71.89775734282044</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="G11" t="n">
-        <v>71.89775734282044</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H11" t="n">
-        <v>71.89775734282044</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I11" t="n">
         <v>71.89775734282044</v>
@@ -5053,16 +5053,16 @@
         <v>1677.140812435722</v>
       </c>
       <c r="N11" t="n">
-        <v>2566.875559553125</v>
+        <v>1677.140812435722</v>
       </c>
       <c r="O11" t="n">
-        <v>3412.020209703937</v>
+        <v>2522.285462586535</v>
       </c>
       <c r="P11" t="n">
-        <v>3477.331532259119</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q11" t="n">
-        <v>3477.331532259119</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R11" t="n">
         <v>3594.887867141022</v>
@@ -5086,7 +5086,7 @@
         <v>1845.639329249551</v>
       </c>
       <c r="Y11" t="n">
-        <v>1440.302059204442</v>
+        <v>1653.974615637996</v>
       </c>
     </row>
     <row r="12">
@@ -5126,22 +5126,22 @@
         <v>79.34440030473228</v>
       </c>
       <c r="L12" t="n">
-        <v>79.34440030473228</v>
+        <v>916.1432083876384</v>
       </c>
       <c r="M12" t="n">
-        <v>444.6858538584448</v>
+        <v>916.1432083876384</v>
       </c>
       <c r="N12" t="n">
-        <v>1334.420600975848</v>
+        <v>916.1432083876384</v>
       </c>
       <c r="O12" t="n">
-        <v>1334.420600975848</v>
+        <v>916.1432083876384</v>
       </c>
       <c r="P12" t="n">
-        <v>1334.420600975848</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="Q12" t="n">
-        <v>1798.566077838627</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R12" t="n">
         <v>1880.58538792333</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>481.7195638001579</v>
+        <v>515.5006629490681</v>
       </c>
       <c r="C13" t="n">
-        <v>481.7195638001579</v>
+        <v>343.5280998279841</v>
       </c>
       <c r="D13" t="n">
-        <v>481.7195638001579</v>
+        <v>343.5280998279841</v>
       </c>
       <c r="E13" t="n">
-        <v>481.7195638001579</v>
+        <v>343.5280998279841</v>
       </c>
       <c r="F13" t="n">
-        <v>481.7195638001579</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="G13" t="n">
-        <v>315.4625940943901</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="H13" t="n">
         <v>171.6663256025445</v>
@@ -5223,28 +5223,28 @@
         <v>2252.310784755949</v>
       </c>
       <c r="R13" t="n">
-        <v>2205.272171443122</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S13" t="n">
-        <v>2035.137123962257</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T13" t="n">
-        <v>1791.797776188157</v>
+        <v>2011.32161624474</v>
       </c>
       <c r="U13" t="n">
-        <v>1511.613327688461</v>
+        <v>1731.137167745045</v>
       </c>
       <c r="V13" t="n">
-        <v>1229.90186029649</v>
+        <v>1449.425700353074</v>
       </c>
       <c r="W13" t="n">
-        <v>955.0494564690027</v>
+        <v>1174.573296525587</v>
       </c>
       <c r="X13" t="n">
-        <v>712.4855599148078</v>
+        <v>932.0093999713918</v>
       </c>
       <c r="Y13" t="n">
-        <v>486.1427916045499</v>
+        <v>705.6666316611338</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1544.669353331301</v>
+        <v>1742.137909694791</v>
       </c>
       <c r="C14" t="n">
-        <v>1544.669353331301</v>
+        <v>1315.237179708092</v>
       </c>
       <c r="D14" t="n">
-        <v>1327.337941416114</v>
+        <v>891.9445588930919</v>
       </c>
       <c r="E14" t="n">
-        <v>901.3610015639716</v>
+        <v>891.9445588930919</v>
       </c>
       <c r="F14" t="n">
-        <v>476.2368197533718</v>
+        <v>466.8203770824921</v>
       </c>
       <c r="G14" t="n">
-        <v>71.89775734282044</v>
+        <v>369.7661358687856</v>
       </c>
       <c r="H14" t="n">
         <v>71.89775734282044</v>
@@ -5278,25 +5278,25 @@
         <v>71.89775734282044</v>
       </c>
       <c r="J14" t="n">
-        <v>254.7654147799045</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K14" t="n">
-        <v>970.2737227554036</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L14" t="n">
-        <v>1860.008469872806</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="M14" t="n">
-        <v>2749.743216990209</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="N14" t="n">
-        <v>2749.743216990209</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="O14" t="n">
-        <v>3594.887867141022</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="P14" t="n">
-        <v>3594.887867141022</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q14" t="n">
         <v>3594.887867141022</v>
@@ -5308,22 +5308,22 @@
         <v>3594.887867141022</v>
       </c>
       <c r="T14" t="n">
-        <v>3373.962296185655</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U14" t="n">
-        <v>3115.607386782067</v>
+        <v>3336.532957737434</v>
       </c>
       <c r="V14" t="n">
-        <v>2758.117971908317</v>
+        <v>2979.043542863684</v>
       </c>
       <c r="W14" t="n">
-        <v>2361.726622208664</v>
+        <v>2979.043542863684</v>
       </c>
       <c r="X14" t="n">
-        <v>1950.006623376411</v>
+        <v>2567.323544031431</v>
       </c>
       <c r="Y14" t="n">
-        <v>1544.669353331301</v>
+        <v>2161.986273986322</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>71.89775734282044</v>
       </c>
       <c r="I15" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J15" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="K15" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="L15" t="n">
-        <v>71.89775734282044</v>
+        <v>274.6529237674293</v>
       </c>
       <c r="M15" t="n">
-        <v>71.89775734282044</v>
+        <v>274.6529237674293</v>
       </c>
       <c r="N15" t="n">
-        <v>71.89775734282044</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="O15" t="n">
-        <v>961.3790353542921</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="P15" t="n">
-        <v>1334.420600975848</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q15" t="n">
-        <v>1798.566077838627</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R15" t="n">
         <v>1880.58538792333</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1155.078879867057</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C16" t="n">
-        <v>983.1063167459732</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D16" t="n">
-        <v>819.7895438727439</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E16" t="n">
-        <v>653.5813380255975</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F16" t="n">
-        <v>481.7195638001579</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G16" t="n">
-        <v>315.4625940943901</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H16" t="n">
-        <v>171.6663256025445</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I16" t="n">
         <v>71.89775734282044</v>
@@ -5463,25 +5463,25 @@
         <v>2252.310784755949</v>
       </c>
       <c r="S16" t="n">
-        <v>2252.310784755949</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T16" t="n">
-        <v>2252.310784755949</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U16" t="n">
-        <v>2252.310784755949</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V16" t="n">
-        <v>2089.003917271063</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W16" t="n">
-        <v>1814.151513443576</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X16" t="n">
-        <v>1571.587616889381</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y16" t="n">
-        <v>1345.244848579123</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
     <row r="17">
@@ -5515,25 +5515,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2036.213862444163</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4565.888850239604</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
         <v>4997.579335409525</v>
@@ -5542,25 +5542,25 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5603,10 +5603,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O18" t="n">
         <v>1910.990343986338</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>655.1318596602905</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>483.1592965392065</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>483.1592965392065</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5712,13 +5712,13 @@
         <v>1589.056897064296</v>
       </c>
       <c r="W19" t="n">
-        <v>1589.056897064296</v>
+        <v>1314.204493236809</v>
       </c>
       <c r="X19" t="n">
-        <v>1589.056897064296</v>
+        <v>1071.640596682614</v>
       </c>
       <c r="Y19" t="n">
-        <v>1375.649804642131</v>
+        <v>845.2978283723562</v>
       </c>
     </row>
     <row r="20">
@@ -5752,25 +5752,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5779,22 +5779,22 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5828,28 +5828,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>584.328514724526</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>412.355951603442</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>412.355951603442</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>412.355951603442</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5937,25 +5937,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>810.671283034784</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>584.328514724526</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5989,25 +5989,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>533.9931985757493</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2467.904347614084</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N23" t="n">
-        <v>3444.155406100785</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
         <v>4997.579335409525</v>
@@ -6068,25 +6068,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>1446.844867123559</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>1446.844867123559</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N24" t="n">
-        <v>1446.844867123559</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O24" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
         <v>1910.990343986338</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>437.5920494001418</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>265.6194862790578</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
         <v>102.3027134058285</v>
@@ -6174,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2176.752350469914</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>1933.413002695814</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1653.228554196118</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1371.517086804147</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1096.66468297666</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>854.1007864224655</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>627.7580181122075</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6305,25 +6305,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O27" t="n">
-        <v>1194.79262694784</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>648.2727960958064</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>476.3002329747223</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>476.3002329747223</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
         <v>102.3027134058285</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1307.345429672325</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>1064.78153311813</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>838.4387648078721</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6472,19 +6472,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N29" t="n">
-        <v>3561.711740982687</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6542,19 +6542,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>374.0002026854196</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O30" t="n">
         <v>1194.79262694784</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>516.5477476675582</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C31" t="n">
-        <v>344.5751845464741</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D31" t="n">
-        <v>274.1644876312681</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E31" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1929.242904622005</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1929.242904622005</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1929.242904622005</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1654.390500794518</v>
       </c>
       <c r="X31" t="n">
-        <v>742.8905159778161</v>
+        <v>1411.826604240323</v>
       </c>
       <c r="Y31" t="n">
-        <v>516.5477476675582</v>
+        <v>1185.483835930065</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>195.4640539534684</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>195.4640539534684</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1125.089101572745</v>
+        <v>1983.783825177544</v>
       </c>
       <c r="M32" t="n">
-        <v>2129.375202991803</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N32" t="n">
-        <v>3105.626261478504</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6782,22 +6782,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>692.7876399741681</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N33" t="n">
-        <v>692.7876399741681</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O33" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P33" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q33" t="n">
         <v>1910.990343986338</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>496.5168264363576</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>496.5168264363576</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>496.5168264363576</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>496.5168264363576</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>496.5168264363576</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2235.67712750613</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>1992.33777973203</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1712.153331232334</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1430.441863840363</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1155.589460012876</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>913.0255634586812</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>686.6827951484232</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,13 +6925,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6946,19 +6946,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O35" t="n">
-        <v>4406.8563911335</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -6973,10 +6973,10 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X35" t="n">
         <v>3365.887132399955</v>
@@ -7019,22 +7019,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N36" t="n">
-        <v>692.7876399741681</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O36" t="n">
-        <v>730.647150085061</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P36" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>373.4203922683193</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
         <v>102.3027134058285</v>
@@ -7122,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>789.9291292906429</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>563.5863609803849</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7183,19 +7183,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4935.721337874071</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7210,16 +7210,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>374.0002026854196</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N39" t="n">
-        <v>374.0002026854196</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O39" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3205.84032174079</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>3033.867758619706</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>3033.867758619706</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>3033.867758619706</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>4945.000622810562</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>4701.661275036462</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>4421.476826536767</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>4139.765359144795</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>3864.912955317308</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>3622.349058763114</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>3396.006290452855</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1432.173693745164</v>
+        <v>1773.192229807262</v>
       </c>
       <c r="C41" t="n">
-        <v>1005.272963758465</v>
+        <v>1346.291499820562</v>
       </c>
       <c r="D41" t="n">
-        <v>1005.272963758465</v>
+        <v>922.9988790055627</v>
       </c>
       <c r="E41" t="n">
-        <v>774.1051982793369</v>
+        <v>497.0219391534202</v>
       </c>
       <c r="F41" t="n">
-        <v>774.1051982793369</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G41" t="n">
-        <v>369.7661358687856</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H41" t="n">
         <v>71.89775734282044</v>
@@ -7414,22 +7414,22 @@
         <v>71.89775734282044</v>
       </c>
       <c r="K41" t="n">
-        <v>80.53897563800069</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L41" t="n">
-        <v>970.2737227554036</v>
+        <v>1540.788361361508</v>
       </c>
       <c r="M41" t="n">
-        <v>1860.008469872806</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="N41" t="n">
-        <v>2749.743216990209</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="O41" t="n">
-        <v>3594.887867141022</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="P41" t="n">
-        <v>3594.887867141022</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q41" t="n">
         <v>3594.887867141022</v>
@@ -7438,25 +7438,25 @@
         <v>3594.887867141022</v>
       </c>
       <c r="S41" t="n">
-        <v>3490.520573014162</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T41" t="n">
-        <v>3269.595002058795</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U41" t="n">
-        <v>3011.240092655207</v>
+        <v>3406.489212675808</v>
       </c>
       <c r="V41" t="n">
-        <v>2653.750677781457</v>
+        <v>3406.489212675808</v>
       </c>
       <c r="W41" t="n">
-        <v>2257.359328081804</v>
+        <v>3010.097862976154</v>
       </c>
       <c r="X41" t="n">
-        <v>2257.359328081804</v>
+        <v>2598.377864143902</v>
       </c>
       <c r="Y41" t="n">
-        <v>1852.022058036694</v>
+        <v>2193.040594098792</v>
       </c>
     </row>
     <row r="42">
@@ -7496,16 +7496,16 @@
         <v>71.89775734282044</v>
       </c>
       <c r="L42" t="n">
-        <v>101.1158936885245</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="M42" t="n">
-        <v>990.8506408059274</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="N42" t="n">
-        <v>1880.58538792333</v>
+        <v>274.9063928733606</v>
       </c>
       <c r="O42" t="n">
-        <v>1880.58538792333</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="P42" t="n">
         <v>1880.58538792333</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>748.1972702422584</v>
+        <v>513.1504836861761</v>
       </c>
       <c r="C43" t="n">
-        <v>576.2247071211743</v>
+        <v>341.1779205650921</v>
       </c>
       <c r="D43" t="n">
-        <v>576.2247071211743</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E43" t="n">
-        <v>410.0165012740279</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F43" t="n">
-        <v>238.1547270485883</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G43" t="n">
         <v>71.89775734282044</v>
@@ -7611,10 +7611,10 @@
         <v>1172.223117262695</v>
       </c>
       <c r="X43" t="n">
-        <v>974.5400385525163</v>
+        <v>929.6592207084997</v>
       </c>
       <c r="Y43" t="n">
-        <v>748.1972702422584</v>
+        <v>703.3164523982417</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1020.453694912912</v>
+        <v>2475.399670743779</v>
       </c>
       <c r="C44" t="n">
-        <v>593.5529649262119</v>
+        <v>2048.498940757079</v>
       </c>
       <c r="D44" t="n">
-        <v>170.2603441112121</v>
+        <v>1625.206319942079</v>
       </c>
       <c r="E44" t="n">
-        <v>71.89775734282044</v>
+        <v>1199.229380089937</v>
       </c>
       <c r="F44" t="n">
-        <v>71.89775734282044</v>
+        <v>774.1051982793369</v>
       </c>
       <c r="G44" t="n">
-        <v>71.89775734282044</v>
+        <v>369.7661358687856</v>
       </c>
       <c r="H44" t="n">
         <v>71.89775734282044</v>
@@ -7648,28 +7648,28 @@
         <v>71.89775734282044</v>
       </c>
       <c r="J44" t="n">
-        <v>71.89775734282044</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K44" t="n">
-        <v>144.4381087155731</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L44" t="n">
-        <v>144.4381087155731</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="M44" t="n">
-        <v>1034.172855832976</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="N44" t="n">
-        <v>1923.907602950379</v>
+        <v>1585.378458328099</v>
       </c>
       <c r="O44" t="n">
-        <v>2769.052253101191</v>
+        <v>2430.523108478911</v>
       </c>
       <c r="P44" t="n">
-        <v>3477.331532259119</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q44" t="n">
-        <v>3477.331532259119</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R44" t="n">
         <v>3594.887867141022</v>
@@ -7687,13 +7687,13 @@
         <v>2653.750677781457</v>
       </c>
       <c r="W44" t="n">
-        <v>2257.359328081804</v>
+        <v>2475.399670743779</v>
       </c>
       <c r="X44" t="n">
-        <v>1845.639329249551</v>
+        <v>2475.399670743779</v>
       </c>
       <c r="Y44" t="n">
-        <v>1440.302059204442</v>
+        <v>2475.399670743779</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>71.89775734282044</v>
       </c>
       <c r="J45" t="n">
-        <v>343.5952466224115</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K45" t="n">
-        <v>934.0801731907511</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L45" t="n">
-        <v>934.0801731907511</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="M45" t="n">
-        <v>934.0801731907511</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="N45" t="n">
-        <v>1334.420600975848</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="O45" t="n">
-        <v>1334.420600975848</v>
+        <v>700.2421940220529</v>
       </c>
       <c r="P45" t="n">
-        <v>1334.420600975848</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="Q45" t="n">
-        <v>1798.566077838627</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R45" t="n">
         <v>1880.58538792333</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>845.0744055280652</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C46" t="n">
-        <v>673.1018424069812</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D46" t="n">
-        <v>509.7850695337519</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E46" t="n">
-        <v>509.7850695337519</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F46" t="n">
-        <v>337.9232953083123</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G46" t="n">
-        <v>171.6663256025445</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H46" t="n">
-        <v>171.6663256025445</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I46" t="n">
         <v>71.89775734282044</v>
@@ -7830,28 +7830,28 @@
         <v>2252.310784755949</v>
       </c>
       <c r="R46" t="n">
-        <v>2205.272171443122</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S46" t="n">
-        <v>2035.137123962257</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.137123962257</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U46" t="n">
-        <v>2035.137123962257</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V46" t="n">
-        <v>1778.999442932071</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W46" t="n">
-        <v>1504.147039104584</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X46" t="n">
-        <v>1261.583142550389</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y46" t="n">
-        <v>1035.240374240131</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
         <v>758.5002654165255</v>
@@ -7987,19 +7987,19 @@
         <v>937.0340092178783</v>
       </c>
       <c r="M2" t="n">
-        <v>936.1532296846872</v>
+        <v>432.1573611078082</v>
       </c>
       <c r="N2" t="n">
-        <v>221.9944283264504</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8057,7 +8057,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
@@ -8066,16 +8066,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>383.3462223301476</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>481.0004784218839</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P3" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>44.49310412327424</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
         <v>937.0340092178783</v>
@@ -8227,7 +8227,7 @@
         <v>936.1532296846872</v>
       </c>
       <c r="N5" t="n">
-        <v>936.0015896197015</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
         <v>891.0724241548241</v>
@@ -8236,10 +8236,10 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>115.5245964518719</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,31 +8294,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>172.3011348045103</v>
       </c>
       <c r="M6" t="n">
-        <v>921.8187472975834</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>354.9577047674418</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>641.4935297576982</v>
       </c>
       <c r="L8" t="n">
-        <v>827.0187399383606</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M8" t="n">
-        <v>936.1532296846872</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>936.0015896197015</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>618.848654609434</v>
+        <v>116.9890967364863</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
@@ -8543,7 +8543,7 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>508.5750866678849</v>
+        <v>920.064994998797</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
@@ -8555,7 +8555,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8701,19 +8701,19 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>936.0015896197015</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>103.546394694253</v>
+        <v>660.3197305479116</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8774,25 +8774,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>392.1285517787043</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>920.064994998797</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>527.1210459249423</v>
       </c>
       <c r="Q12" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,16 +8926,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>214.1347649775906</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>937.0340092178783</v>
+        <v>844.3447626445209</v>
       </c>
       <c r="M14" t="n">
-        <v>936.1532296846872</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
         <v>37.27962283444602</v>
@@ -8944,10 +8944,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>35.03264989479647</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>20.61111433333334</v>
@@ -9011,25 +9011,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>219.7964235452367</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>920.064994998797</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>398.5805034488242</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9184,7 +9184,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>472.1756697257304</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9251,13 +9251,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N18" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9409,19 +9409,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>464.8736204150517</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9476,31 +9476,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>471.8155959159414</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9658,7 +9658,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9716,28 +9716,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>509.7471451685728</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9892,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
@@ -9968,13 +9968,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>255.8057257768496</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P27" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10120,10 +10120,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N29" t="n">
-        <v>489.184786214375</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
@@ -10132,10 +10132,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
         <v>22.39923383333334</v>
@@ -10202,10 +10202,10 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O30" t="n">
-        <v>852.2551465529502</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
         <v>745.2028786174529</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>123.5223236751217</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>849.7962292804214</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10372,7 +10372,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,25 +10430,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>61.41381912716452</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10594,22 +10594,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>356.8654072451563</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
@@ -10676,16 +10676,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O36" t="n">
-        <v>61.41381912716452</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P36" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10831,22 +10831,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>217.3512730059682</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
         <v>22.39923383333334</v>
@@ -10910,19 +10910,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>383.4213315400418</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11062,25 +11062,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>44.49310412327424</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>937.0340092178783</v>
+        <v>799.3042606580655</v>
       </c>
       <c r="M41" t="n">
         <v>936.1532296846872</v>
       </c>
       <c r="N41" t="n">
-        <v>936.0015896197015</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>35.03264989479647</v>
@@ -11144,19 +11144,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>52.02835575029422</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>921.8187472975834</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>920.064994998797</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11296,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>109.037682989509</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>478.0786426274547</v>
       </c>
       <c r="M44" t="n">
-        <v>936.1532296846872</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>936.0015896197015</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11317,10 +11317,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11387,19 +11387,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>425.7272987035383</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23260,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>324.3382095529132</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>211.5358308692184</v>
       </c>
     </row>
     <row r="12">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.885313498597</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -23427,13 +23427,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>2.326677470262922</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>203.9015968108142</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>304.2119729848764</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -23548,7 +23548,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>122.2356629785262</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>12.8063191292122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,13 +24138,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24177,7 +24177,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>20.53473220669966</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -24414,7 +24414,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>63.52994056050434</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24609,13 +24609,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>129.0261359073655</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24651,7 +24651,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>91.97701519844304</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>59.40154346743327</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -25086,16 +25086,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>15.45161649254044</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>71.9894918991925</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
@@ -25362,7 +25362,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>71.9894918991921</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
@@ -25599,7 +25599,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25633,19 +25633,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>192.8610826292847</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>69.25669238899007</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>65.23940003763322</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>44.43200966557643</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,16 +25873,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>324.3382095529132</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>215.8599392353551</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>25.3180484981672</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>545076.9297856212</v>
+        <v>545076.9297856214</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>689017.9504824688</v>
+        <v>689017.9504824687</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>689017.9504824686</v>
+        <v>689017.9504824687</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>689017.9504824688</v>
+        <v>689017.9504824687</v>
       </c>
     </row>
     <row r="10">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>545076.9297856214</v>
+        <v>545076.9297856215</v>
       </c>
     </row>
   </sheetData>
@@ -26316,16 +26316,16 @@
         <v>334904.5341064188</v>
       </c>
       <c r="C2" t="n">
-        <v>334904.5341064188</v>
+        <v>334904.5341064187</v>
       </c>
       <c r="D2" t="n">
-        <v>334904.5341064188</v>
+        <v>334904.5341064187</v>
       </c>
       <c r="E2" t="n">
         <v>255659.2757639539</v>
       </c>
       <c r="F2" t="n">
-        <v>255659.2757639539</v>
+        <v>255659.275763954</v>
       </c>
       <c r="G2" t="n">
         <v>323167.4818040323</v>
@@ -26337,10 +26337,10 @@
         <v>323167.4818040323</v>
       </c>
       <c r="J2" t="n">
-        <v>323167.4818040322</v>
+        <v>323167.4818040321</v>
       </c>
       <c r="K2" t="n">
-        <v>323167.4818040322</v>
+        <v>323167.4818040323</v>
       </c>
       <c r="L2" t="n">
         <v>323167.4818040322</v>
@@ -26349,13 +26349,13 @@
         <v>323167.4818040322</v>
       </c>
       <c r="N2" t="n">
-        <v>323167.4818040321</v>
+        <v>323167.4818040323</v>
       </c>
       <c r="O2" t="n">
         <v>255659.275763954</v>
       </c>
       <c r="P2" t="n">
-        <v>255659.275763954</v>
+        <v>255659.2757639539</v>
       </c>
     </row>
     <row r="3">
@@ -26438,13 +26438,13 @@
         <v>29432.2870559115</v>
       </c>
       <c r="I4" t="n">
-        <v>29432.28705591151</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="J4" t="n">
         <v>29432.2870559115</v>
       </c>
       <c r="K4" t="n">
-        <v>29432.28705591151</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="L4" t="n">
         <v>29432.2870559115</v>
@@ -26524,46 +26524,46 @@
         <v>-156472.7827425251</v>
       </c>
       <c r="C6" t="n">
-        <v>144709.6189324501</v>
+        <v>144709.61893245</v>
       </c>
       <c r="D6" t="n">
-        <v>144709.6189324501</v>
+        <v>144709.61893245</v>
       </c>
       <c r="E6" t="n">
-        <v>177753.8464278525</v>
+        <v>177409.3018263636</v>
       </c>
       <c r="F6" t="n">
-        <v>177753.8464278525</v>
+        <v>177409.3018263636</v>
       </c>
       <c r="G6" t="n">
-        <v>111815.8527780714</v>
+        <v>111764.8221158871</v>
       </c>
       <c r="H6" t="n">
-        <v>215985.1325596911</v>
+        <v>215934.1018975069</v>
       </c>
       <c r="I6" t="n">
-        <v>215985.1325596911</v>
+        <v>215934.1018975068</v>
       </c>
       <c r="J6" t="n">
-        <v>-19160.07771787029</v>
+        <v>-19211.1083800547</v>
       </c>
       <c r="K6" t="n">
-        <v>215985.132559691</v>
+        <v>215934.1018975068</v>
       </c>
       <c r="L6" t="n">
-        <v>215985.132559691</v>
+        <v>215934.1018975067</v>
       </c>
       <c r="M6" t="n">
-        <v>215985.132559691</v>
+        <v>215934.1018975067</v>
       </c>
       <c r="N6" t="n">
-        <v>215985.1325596909</v>
+        <v>215934.1018975068</v>
       </c>
       <c r="O6" t="n">
-        <v>177753.8464278526</v>
+        <v>177409.3018263636</v>
       </c>
       <c r="P6" t="n">
-        <v>177753.8464278526</v>
+        <v>177409.3018263635</v>
       </c>
     </row>
   </sheetData>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>317.1046250514754</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -27441,7 +27441,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>317.1046250514749</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.8853134985968</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>134.4062914546851</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -27551,7 +27551,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>32.49731911169687</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -27669,22 +27669,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>62.58521933160273</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27779,19 +27779,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>59.64236734312301</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -27827,16 +27827,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>23.72839555637429</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>108.6706986065899</v>
+        <v>137.0728948869672</v>
       </c>
     </row>
     <row r="9">
@@ -28016,19 +28016,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>48.89490464996143</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
         <v>722.7356646217162</v>
@@ -34707,19 +34707,19 @@
         <v>898.7219667852554</v>
       </c>
       <c r="M2" t="n">
-        <v>898.7219667852554</v>
+        <v>394.7260982083764</v>
       </c>
       <c r="N2" t="n">
-        <v>184.7148054920043</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34786,16 +34786,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>360.2494418178196</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>459.6574502083422</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P3" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
@@ -34935,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>8.728503328464901</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>898.7219667852554</v>
@@ -34947,7 +34947,7 @@
         <v>898.7219667852554</v>
       </c>
       <c r="N5" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>853.6814647988001</v>
@@ -34956,10 +34956,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>80.49194655707541</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>149.7860480902807</v>
       </c>
       <c r="M6" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>331.7858150452196</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>605.7289289628889</v>
       </c>
       <c r="L8" t="n">
-        <v>788.7066975057377</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M8" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>596.4494207761006</v>
+        <v>94.58986290315299</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35263,7 +35263,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>487.2320584543432</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35275,7 +35275,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35421,19 +35421,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>65.97103288402172</v>
+        <v>622.7443687376804</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,25 +35494,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>369.0317712663763</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>505.3502047201137</v>
       </c>
       <c r="Q12" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,16 +35646,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>184.7148054920041</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>898.7219667852554</v>
+        <v>806.032720211898</v>
       </c>
       <c r="M14" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35664,10 +35664,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35731,25 +35731,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>197.2813368310071</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>376.8096622439955</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35904,7 +35904,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>436.0509951211323</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35971,13 +35971,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N18" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36129,19 +36129,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>428.7489458104537</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>436.0509951211321</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36378,7 +36378,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>487.2320584543432</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36612,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36688,13 +36688,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>232.6338360546274</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P27" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36840,10 +36840,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N29" t="n">
-        <v>451.905163379929</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
@@ -36852,10 +36852,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36922,10 +36922,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O30" t="n">
-        <v>829.083256830728</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
         <v>723.4320374126243</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>94.10236418953517</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>811.4841868477985</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37092,7 +37092,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>38.24192940494229</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37314,22 +37314,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>319.4744478891323</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37396,16 +37396,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O36" t="n">
-        <v>38.24192940494229</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P36" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37551,22 +37551,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>181.2265984013702</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37630,19 +37630,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>360.2494418178196</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,25 +37782,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>8.728503328464901</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>898.7219667852554</v>
+        <v>760.9922182254426</v>
       </c>
       <c r="M41" t="n">
         <v>898.7219667852554</v>
       </c>
       <c r="N41" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>29.51326903606467</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>898.7219667852554</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>73.27308219469965</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>439.7666001948318</v>
       </c>
       <c r="M44" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38037,10 +38037,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38107,19 +38107,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>404.3842704899966</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
